--- a/experiments/evaluation/llm-based/roberta-base_15/rem-100_remove/rem4/incorrect_predictions.xlsx
+++ b/experiments/evaluation/llm-based/roberta-base_15/rem-100_remove/rem4/incorrect_predictions.xlsx
@@ -462,7 +462,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -487,7 +487,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
